--- a/Crawling/music/crawled_data/outlier_data/2022-05-09_2022-05-15/naver_datalab/outliers/너의 번호를 누르고_김나영.xlsx
+++ b/Crawling/music/crawled_data/outlier_data/2022-05-09_2022-05-15/naver_datalab/outliers/너의 번호를 누르고_김나영.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>url</t>
   </si>
   <si>
-    <t>http://datalab.naver.com/keyword/trendResult.naver?hashKey=N_e8132eae2412a0a006beda8c8295af9b</t>
+    <t>http://datalab.naver.com/keyword/trendResult.naver?hashKey=N_50e32098cf2e29b0a3f4ebe30a9607ef</t>
   </si>
   <si>
     <t>주제</t>
@@ -35,7 +35,7 @@
     <t>기간</t>
   </si>
   <si>
-    <t>일간 : 2022-04-16 ~ 2022-05-16</t>
+    <t>일간 : 2022-04-18 ~ 2022-05-18</t>
   </si>
   <si>
     <t>성별</t>
@@ -56,172 +56,160 @@
     <t>너의 번호를 누르고</t>
   </si>
   <si>
-    <t>2022-04-16</t>
+    <t>2022-04-18</t>
+  </si>
+  <si>
+    <t>79.01477</t>
+  </si>
+  <si>
+    <t>2022-04-19</t>
+  </si>
+  <si>
+    <t>72.46305</t>
+  </si>
+  <si>
+    <t>2022-04-20</t>
+  </si>
+  <si>
+    <t>83.74384</t>
+  </si>
+  <si>
+    <t>2022-04-21</t>
+  </si>
+  <si>
+    <t>68.42364</t>
+  </si>
+  <si>
+    <t>2022-04-22</t>
+  </si>
+  <si>
+    <t>84.0394</t>
+  </si>
+  <si>
+    <t>2022-04-23</t>
   </si>
   <si>
     <t>100.0</t>
   </si>
   <si>
-    <t>2022-04-17</t>
-  </si>
-  <si>
-    <t>81.5889</t>
-  </si>
-  <si>
-    <t>2022-04-18</t>
-  </si>
-  <si>
-    <t>67.42328</t>
-  </si>
-  <si>
-    <t>2022-04-19</t>
-  </si>
-  <si>
-    <t>61.8327</t>
-  </si>
-  <si>
-    <t>2022-04-20</t>
-  </si>
-  <si>
-    <t>71.45859</t>
-  </si>
-  <si>
-    <t>2022-04-21</t>
-  </si>
-  <si>
-    <t>58.38587</t>
-  </si>
-  <si>
-    <t>2022-04-22</t>
-  </si>
-  <si>
-    <t>71.7108</t>
-  </si>
-  <si>
-    <t>2022-04-23</t>
-  </si>
-  <si>
-    <t>85.32997</t>
-  </si>
-  <si>
     <t>2022-04-24</t>
   </si>
   <si>
-    <t>78.26817</t>
+    <t>91.72413</t>
   </si>
   <si>
     <t>2022-04-25</t>
   </si>
   <si>
-    <t>56.49432</t>
+    <t>66.20689</t>
   </si>
   <si>
     <t>2022-04-26</t>
   </si>
   <si>
-    <t>50.60949</t>
+    <t>59.31034</t>
   </si>
   <si>
     <t>2022-04-27</t>
   </si>
   <si>
-    <t>52.29087</t>
+    <t>61.28078</t>
   </si>
   <si>
     <t>2022-04-28</t>
   </si>
   <si>
-    <t>55.27532</t>
+    <t>64.77832</t>
   </si>
   <si>
     <t>2022-04-29</t>
   </si>
   <si>
-    <t>58.76418</t>
+    <t>68.86699</t>
   </si>
   <si>
     <t>2022-04-30</t>
   </si>
   <si>
-    <t>70.82807</t>
+    <t>83.00492</t>
   </si>
   <si>
     <t>2022-05-01</t>
   </si>
   <si>
-    <t>59.2686</t>
+    <t>69.45812</t>
   </si>
   <si>
     <t>2022-05-02</t>
   </si>
   <si>
-    <t>49.85287</t>
+    <t>58.42364</t>
   </si>
   <si>
     <t>2022-05-03</t>
   </si>
   <si>
-    <t>49.34846</t>
+    <t>57.83251</t>
   </si>
   <si>
     <t>2022-05-04</t>
   </si>
   <si>
-    <t>50.94577</t>
+    <t>59.70443</t>
   </si>
   <si>
     <t>2022-05-05</t>
   </si>
   <si>
-    <t>59.22656</t>
+    <t>69.40886</t>
   </si>
   <si>
     <t>2022-05-06</t>
   </si>
   <si>
-    <t>55.98991</t>
+    <t>65.61576</t>
   </si>
   <si>
     <t>2022-05-07</t>
   </si>
   <si>
-    <t>63.80832</t>
+    <t>74.77832</t>
   </si>
   <si>
     <t>2022-05-08</t>
   </si>
   <si>
-    <t>53.25767</t>
+    <t>62.41379</t>
   </si>
   <si>
     <t>2022-05-09</t>
   </si>
   <si>
-    <t>38.62967</t>
+    <t>45.27093</t>
   </si>
   <si>
     <t>2022-05-10</t>
   </si>
   <si>
-    <t>40.77343</t>
+    <t>47.78325</t>
   </si>
   <si>
     <t>2022-05-11</t>
   </si>
   <si>
-    <t>39.72257</t>
+    <t>46.55172</t>
   </si>
   <si>
     <t>2022-05-12</t>
   </si>
   <si>
-    <t>41.36191</t>
+    <t>48.4729</t>
   </si>
   <si>
     <t>2022-05-13</t>
   </si>
   <si>
-    <t>47.87725</t>
+    <t>56.10837</t>
   </si>
   <si>
     <t>2022-05-14</t>
@@ -230,13 +218,22 @@
     <t>2022-05-15</t>
   </si>
   <si>
-    <t>50.8617</t>
+    <t>59.60591</t>
   </si>
   <si>
     <t>2022-05-16</t>
   </si>
   <si>
-    <t>39.93274</t>
+    <t>46.79802</t>
+  </si>
+  <si>
+    <t>2022-05-17</t>
+  </si>
+  <si>
+    <t>2022-05-18</t>
+  </si>
+  <si>
+    <t>53.34975</t>
   </si>
 </sst>
 </file>
@@ -556,23 +553,23 @@
         <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
         <v>68</v>
-      </c>
-      <c r="B35" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -580,15 +577,15 @@
         <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
         <v>73</v>
-      </c>
-      <c r="B38" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
